--- a/plots/countries/plot data/Canada.xlsx
+++ b/plots/countries/plot data/Canada.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>42.4849446689787</v>
+        <v>42.5414738268782</v>
       </c>
     </row>
     <row r="3">
@@ -525,7 +525,7 @@
         <v>17</v>
       </c>
       <c r="F3" t="n">
-        <v>87.0157363343289</v>
+        <v>86.255509744632</v>
       </c>
     </row>
     <row r="4">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>66.1480912141259</v>
+        <v>65.5421650569991</v>
       </c>
     </row>
     <row r="5">
@@ -565,7 +565,7 @@
         <v>17</v>
       </c>
       <c r="F5" t="n">
-        <v>74.699689066338</v>
+        <v>74.723497537175</v>
       </c>
     </row>
     <row r="6">
@@ -585,7 +585,7 @@
         <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>142.948639365097</v>
+        <v>142.673228268248</v>
       </c>
     </row>
     <row r="7">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>118.246236180831</v>
+        <v>118.174406008087</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>54.8909501280882</v>
+        <v>55.0961951250994</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>49.1841757353083</v>
+        <v>49.8473999391711</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>21.3144684883411</v>
+        <v>21.3859478849042</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>42.6571109746028</v>
+        <v>42.7184310732341</v>
       </c>
     </row>
     <row r="12">
@@ -705,7 +705,7 @@
         <v>17</v>
       </c>
       <c r="F12" t="n">
-        <v>85.3078830417413</v>
+        <v>84.4907744332205</v>
       </c>
     </row>
     <row r="13">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>69.5113561062285</v>
+        <v>68.6880864079641</v>
       </c>
     </row>
     <row r="14">
@@ -745,7 +745,7 @@
         <v>17</v>
       </c>
       <c r="F14" t="n">
-        <v>71.433970051213</v>
+        <v>71.3768608430651</v>
       </c>
     </row>
     <row r="15">
@@ -765,7 +765,7 @@
         <v>17</v>
       </c>
       <c r="F15" t="n">
-        <v>141.804591640114</v>
+        <v>141.512071735814</v>
       </c>
     </row>
     <row r="16">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>114.722521987442</v>
+        <v>114.770585177491</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>56.3180659764541</v>
+        <v>56.6439937147883</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>43.2407186905266</v>
+        <v>44.6608506054755</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>21.3827255096631</v>
+        <v>21.3814306145538</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>44.5613285525701</v>
+        <v>44.6189903106394</v>
       </c>
     </row>
     <row r="21">
@@ -885,7 +885,7 @@
         <v>17</v>
       </c>
       <c r="F21" t="n">
-        <v>87.1210081296956</v>
+        <v>86.3495622613076</v>
       </c>
     </row>
     <row r="22">
@@ -905,7 +905,7 @@
         <v>17</v>
       </c>
       <c r="F22" t="n">
-        <v>74.2815415379968</v>
+        <v>73.1193242369779</v>
       </c>
     </row>
     <row r="23">
@@ -925,7 +925,7 @@
         <v>17</v>
       </c>
       <c r="F23" t="n">
-        <v>70.5210484166822</v>
+        <v>70.3729765369855</v>
       </c>
     </row>
     <row r="24">
@@ -945,7 +945,7 @@
         <v>17</v>
       </c>
       <c r="F24" t="n">
-        <v>150.299828946564</v>
+        <v>149.939119198769</v>
       </c>
     </row>
     <row r="25">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>119.08561964568</v>
+        <v>119.03323466873</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>54.113506486735</v>
+        <v>54.4714021758094</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>54.161972865047</v>
+        <v>55.6115000081003</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>21.5510465012392</v>
+        <v>21.4693349199647</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>45.8433468787117</v>
+        <v>45.8924726635798</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>89.939926586607</v>
+        <v>89.1924926312956</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>78.6801558697867</v>
+        <v>77.2547762053874</v>
       </c>
     </row>
     <row r="32">
@@ -1105,7 +1105,7 @@
         <v>17</v>
       </c>
       <c r="F32" t="n">
-        <v>68.3274758254774</v>
+        <v>67.6197659865937</v>
       </c>
     </row>
     <row r="33">
@@ -1125,7 +1125,7 @@
         <v>17</v>
       </c>
       <c r="F33" t="n">
-        <v>145.15200807927</v>
+        <v>144.819970054073</v>
       </c>
     </row>
     <row r="34">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>122.692647562351</v>
+        <v>122.639459602707</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>54.1005645268877</v>
+        <v>55.0022971804303</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>67.1304590068949</v>
+        <v>68.0817118327445</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>21.8749279465917</v>
+        <v>21.7377039525689</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>47.5432405000614</v>
+        <v>47.593409255644</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>89.737233319879</v>
+        <v>89.0181980845177</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>84.4113962341214</v>
+        <v>82.5686225551777</v>
       </c>
     </row>
     <row r="41">
@@ -1285,7 +1285,7 @@
         <v>17</v>
       </c>
       <c r="F41" t="n">
-        <v>72.9403274812129</v>
+        <v>72.2520476486326</v>
       </c>
     </row>
     <row r="42">
@@ -1305,7 +1305,7 @@
         <v>17</v>
       </c>
       <c r="F42" t="n">
-        <v>147.019436248578</v>
+        <v>146.560068763029</v>
       </c>
     </row>
     <row r="43">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>129.174128941067</v>
+        <v>129.153043943872</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>55.8681705498285</v>
+        <v>56.7972176788363</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>54.8617910218603</v>
+        <v>54.5774555366435</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>22.3397043163841</v>
+        <v>22.147013058808</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>49.7318536474409</v>
+        <v>49.7805177751902</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>90.7811256450211</v>
+        <v>90.0681690355406</v>
       </c>
     </row>
     <row r="49">
@@ -1445,7 +1445,7 @@
         <v>17</v>
       </c>
       <c r="F49" t="n">
-        <v>88.8900746414851</v>
+        <v>86.737414437447</v>
       </c>
     </row>
     <row r="50">
@@ -1465,7 +1465,7 @@
         <v>17</v>
       </c>
       <c r="F50" t="n">
-        <v>75.6260539140192</v>
+        <v>75.3622064185926</v>
       </c>
     </row>
     <row r="51">
@@ -1485,7 +1485,7 @@
         <v>17</v>
       </c>
       <c r="F51" t="n">
-        <v>152.015557415435</v>
+        <v>151.646231312584</v>
       </c>
     </row>
     <row r="52">
@@ -1505,7 +1505,7 @@
         <v>17</v>
       </c>
       <c r="F52" t="n">
-        <v>131.985878602156</v>
+        <v>132.058314173199</v>
       </c>
     </row>
     <row r="53">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>56.5154050960982</v>
+        <v>56.9694353357618</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>65.0900222364011</v>
+        <v>64.2734717471215</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>22.3687578255222</v>
+        <v>22.1200470596928</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>50.8011829916348</v>
+        <v>50.8438663896614</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>96.7512764972776</v>
+        <v>96.0521138154053</v>
       </c>
     </row>
     <row r="58">
@@ -1625,7 +1625,7 @@
         <v>17</v>
       </c>
       <c r="F58" t="n">
-        <v>93.2507258905569</v>
+        <v>90.7319673047997</v>
       </c>
     </row>
     <row r="59">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>77.9077259336589</v>
+        <v>77.4334269094341</v>
       </c>
     </row>
     <row r="60">
@@ -1665,7 +1665,7 @@
         <v>17</v>
       </c>
       <c r="F60" t="n">
-        <v>154.808032005966</v>
+        <v>154.585266360104</v>
       </c>
     </row>
     <row r="61">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>134.99797357126</v>
+        <v>135.068404883279</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>58.6480300083713</v>
+        <v>59.3241896359285</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>55.3732634579805</v>
+        <v>54.9706336794348</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>22.0969393749863</v>
+        <v>21.7790093314533</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>51.0403921287</v>
+        <v>51.0810786689994</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>94.8129617040241</v>
+        <v>94.1495336815003</v>
       </c>
     </row>
     <row r="67">
@@ -1805,7 +1805,7 @@
         <v>17</v>
       </c>
       <c r="F67" t="n">
-        <v>96.285212820128</v>
+        <v>93.2250940291442</v>
       </c>
     </row>
     <row r="68">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>79.3473412196945</v>
+        <v>78.8173789405004</v>
       </c>
     </row>
     <row r="69">
@@ -1845,7 +1845,7 @@
         <v>17</v>
       </c>
       <c r="F69" t="n">
-        <v>164.834071286107</v>
+        <v>164.565772755646</v>
       </c>
     </row>
     <row r="70">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>138.778159371806</v>
+        <v>138.845819847169</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>58.3239220044669</v>
+        <v>59.0538594780118</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>53.8335755941876</v>
+        <v>51.8348835747846</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>22.1170260307434</v>
+        <v>21.743151655306</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>51.6432571518407</v>
+        <v>51.6804199572324</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>86.2752965826287</v>
+        <v>85.761894811976</v>
       </c>
     </row>
     <row r="76">
@@ -1985,7 +1985,7 @@
         <v>17</v>
       </c>
       <c r="F76" t="n">
-        <v>98.4193192420585</v>
+        <v>95.2153519453138</v>
       </c>
     </row>
     <row r="77">
@@ -2005,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="F77" t="n">
-        <v>76.2546952687013</v>
+        <v>75.7830188719008</v>
       </c>
     </row>
     <row r="78">
@@ -2025,7 +2025,7 @@
         <v>17</v>
       </c>
       <c r="F78" t="n">
-        <v>179.570641815686</v>
+        <v>179.260651000301</v>
       </c>
     </row>
     <row r="79">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>141.254920797452</v>
+        <v>141.319462777656</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>55.6116484806286</v>
+        <v>56.3012032795144</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>47.0985131914775</v>
+        <v>44.1700488988773</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>23.1281666322851</v>
+        <v>22.7031744921241</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>51.8201303772198</v>
+        <v>51.858460378677</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>89.960777215485</v>
+        <v>89.524761769152</v>
       </c>
     </row>
     <row r="85">
@@ -2165,7 +2165,7 @@
         <v>17</v>
       </c>
       <c r="F85" t="n">
-        <v>94.574742381212</v>
+        <v>91.0266010291431</v>
       </c>
     </row>
     <row r="86">
@@ -2185,7 +2185,7 @@
         <v>17</v>
       </c>
       <c r="F86" t="n">
-        <v>77.4882473787298</v>
+        <v>77.0266451707532</v>
       </c>
     </row>
     <row r="87">
@@ -2205,7 +2205,7 @@
         <v>17</v>
       </c>
       <c r="F87" t="n">
-        <v>187.277820186706</v>
+        <v>186.90865887059</v>
       </c>
     </row>
     <row r="88">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>144.807618139819</v>
+        <v>144.779474723064</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>53.5232083786032</v>
+        <v>54.2780682005397</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>51.481796165847</v>
+        <v>48.8218879288585</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>23.4009078015992</v>
+        <v>22.908606970495</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>52.6749512072604</v>
+        <v>52.7147463435731</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>96.5443770415731</v>
+        <v>96.1334794288785</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>95.3861897374921</v>
+        <v>94.3873102524308</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>78.7929311350843</v>
+        <v>78.3932815020718</v>
       </c>
     </row>
     <row r="96">
@@ -2385,7 +2385,7 @@
         <v>17</v>
       </c>
       <c r="F96" t="n">
-        <v>202.874862428203</v>
+        <v>202.513928271158</v>
       </c>
     </row>
     <row r="97">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>144.41165959731</v>
+        <v>144.362429311445</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>53.1531926352656</v>
+        <v>54.2567953220823</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>57.1162012930303</v>
+        <v>54.5029145603907</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>23.900394242065</v>
+        <v>23.3574948715818</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>53.1303289318513</v>
+        <v>53.173543157388</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>91.8725911595091</v>
+        <v>91.52763717584</v>
       </c>
     </row>
     <row r="103">
@@ -2525,7 +2525,7 @@
         <v>17</v>
       </c>
       <c r="F103" t="n">
-        <v>94.4591207248132</v>
+        <v>94.7121120553617</v>
       </c>
     </row>
     <row r="104">
@@ -2545,7 +2545,7 @@
         <v>17</v>
       </c>
       <c r="F104" t="n">
-        <v>73.6841371291119</v>
+        <v>73.4244819336726</v>
       </c>
     </row>
     <row r="105">
@@ -2565,7 +2565,7 @@
         <v>17</v>
       </c>
       <c r="F105" t="n">
-        <v>207.629250711008</v>
+        <v>207.385341335593</v>
       </c>
     </row>
     <row r="106">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>143.417796920075</v>
+        <v>143.39937095648</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>51.1469795318015</v>
+        <v>52.1901170681903</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>39.8144569727842</v>
+        <v>36.8216607942637</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>23.5450886501576</v>
+        <v>22.9587964243694</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>53.4810582801498</v>
+        <v>53.5226338664374</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>95.2058704770197</v>
+        <v>94.8507980155764</v>
       </c>
     </row>
     <row r="112">
@@ -2705,7 +2705,7 @@
         <v>17</v>
       </c>
       <c r="F112" t="n">
-        <v>93.7041630822171</v>
+        <v>95.2330890870028</v>
       </c>
     </row>
     <row r="113">
@@ -2725,7 +2725,7 @@
         <v>17</v>
       </c>
       <c r="F113" t="n">
-        <v>72.6079485461832</v>
+        <v>72.1343870105761</v>
       </c>
     </row>
     <row r="114">
@@ -2745,7 +2745,7 @@
         <v>17</v>
       </c>
       <c r="F114" t="n">
-        <v>206.83584934821</v>
+        <v>206.586150019626</v>
       </c>
     </row>
     <row r="115">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>145.651096389019</v>
+        <v>145.706384040466</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>53.1437064249496</v>
+        <v>54.3076566514112</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>69.559866840193</v>
+        <v>68.2183280945335</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>24.027699898921</v>
+        <v>23.3984127031359</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>54.8195035083157</v>
+        <v>54.8514861659573</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>98.9997996136769</v>
+        <v>98.6742573523156</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>93.0472995702052</v>
+        <v>94.2003614556343</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>71.0642770698512</v>
+        <v>70.6811254500356</v>
       </c>
     </row>
     <row r="123">
@@ -2925,7 +2925,7 @@
         <v>17</v>
       </c>
       <c r="F123" t="n">
-        <v>216.537888803632</v>
+        <v>216.291861244385</v>
       </c>
     </row>
     <row r="124">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>149.241355169302</v>
+        <v>149.295179315981</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>55.2459439630906</v>
+        <v>56.1731125640399</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>66.3561128128167</v>
+        <v>65.5537201547035</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>24.1869147839435</v>
+        <v>23.5035271346193</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>55.6334077986662</v>
+        <v>55.6720061512616</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>96.5834090096906</v>
+        <v>96.2534582095524</v>
       </c>
     </row>
     <row r="130">
@@ -3065,7 +3065,7 @@
         <v>17</v>
       </c>
       <c r="F130" t="n">
-        <v>96.11724271347</v>
+        <v>96.8868783316189</v>
       </c>
     </row>
     <row r="131">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>72.459306138555</v>
+        <v>71.4374637359996</v>
       </c>
     </row>
     <row r="132">
@@ -3105,7 +3105,7 @@
         <v>17</v>
       </c>
       <c r="F132" t="n">
-        <v>209.422555111686</v>
+        <v>206.75791610736</v>
       </c>
     </row>
     <row r="133">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>153.307927455322</v>
+        <v>153.360084692981</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>59.052914263424</v>
+        <v>59.7730652033015</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>63.1677905015347</v>
+        <v>62.996641260812</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>24.147458020914</v>
+        <v>23.4139769981887</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>56.2420953733163</v>
+        <v>56.2855005660338</v>
       </c>
     </row>
     <row r="138">
@@ -3225,7 +3225,7 @@
         <v>17</v>
       </c>
       <c r="F138" t="n">
-        <v>94.7436748418034</v>
+        <v>94.4486045675539</v>
       </c>
     </row>
     <row r="139">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>96.8799344982211</v>
+        <v>97.5692535098761</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>69.3763002400737</v>
+        <v>68.4358739195951</v>
       </c>
     </row>
     <row r="141">
@@ -3285,7 +3285,7 @@
         <v>17</v>
       </c>
       <c r="F141" t="n">
-        <v>207.317858135957</v>
+        <v>205.034751906035</v>
       </c>
     </row>
     <row r="142">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>157.29557667982</v>
+        <v>157.344870548052</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>55.3966308920603</v>
+        <v>56.0332778620327</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>65.9939699044014</v>
+        <v>65.9731218048141</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>24.2406352757623</v>
+        <v>23.5669570769098</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>55.2881274135279</v>
+        <v>55.3278534639259</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>88.9875446595422</v>
+        <v>88.7418681548068</v>
       </c>
     </row>
     <row r="148">
@@ -3425,7 +3425,7 @@
         <v>17</v>
       </c>
       <c r="F148" t="n">
-        <v>100.156888326062</v>
+        <v>101.057774365562</v>
       </c>
     </row>
     <row r="149">
@@ -3445,7 +3445,7 @@
         <v>17</v>
       </c>
       <c r="F149" t="n">
-        <v>67.695701826896</v>
+        <v>66.7266595079742</v>
       </c>
     </row>
     <row r="150">
@@ -3465,7 +3465,7 @@
         <v>17</v>
       </c>
       <c r="F150" t="n">
-        <v>206.451747774389</v>
+        <v>204.849944609602</v>
       </c>
     </row>
     <row r="151">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>157.77298953075</v>
+        <v>157.785656367922</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>56.0311941408969</v>
+        <v>56.5995532199052</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>47.1292650302777</v>
+        <v>47.9045309104382</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>24.3878026177552</v>
+        <v>23.7650459974921</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>54.6455677213271</v>
+        <v>54.6792391862481</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>94.4126657613314</v>
+        <v>94.1293167616705</v>
       </c>
     </row>
     <row r="157">
@@ -3605,7 +3605,7 @@
         <v>17</v>
       </c>
       <c r="F157" t="n">
-        <v>97.9604520674735</v>
+        <v>98.7245658339305</v>
       </c>
     </row>
     <row r="158">
@@ -3625,7 +3625,7 @@
         <v>17</v>
       </c>
       <c r="F158" t="n">
-        <v>68.0839619328976</v>
+        <v>67.1857963449176</v>
       </c>
     </row>
     <row r="159">
@@ -3645,7 +3645,7 @@
         <v>17</v>
       </c>
       <c r="F159" t="n">
-        <v>221.331423143814</v>
+        <v>219.708883480977</v>
       </c>
     </row>
     <row r="160">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>161.769830943093</v>
+        <v>161.735392831814</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>54.5396439777978</v>
+        <v>54.9769745276358</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>45.7896925254845</v>
+        <v>45.2683339891296</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>23.7776083363785</v>
+        <v>23.2021310572249</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>54.2012568482565</v>
+        <v>54.2288044285563</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>93.0327931168086</v>
+        <v>92.7551460173316</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>96.5745482086364</v>
+        <v>97.354004915925</v>
       </c>
     </row>
     <row r="167">
@@ -3805,7 +3805,7 @@
         <v>17</v>
       </c>
       <c r="F167" t="n">
-        <v>65.8148855356492</v>
+        <v>64.8504944357734</v>
       </c>
     </row>
     <row r="168">
@@ -3825,7 +3825,7 @@
         <v>17</v>
       </c>
       <c r="F168" t="n">
-        <v>210.798816723142</v>
+        <v>209.532852105823</v>
       </c>
     </row>
     <row r="169">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>161.593503574036</v>
+        <v>161.489868691557</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>53.6902853206917</v>
+        <v>54.2230165687327</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>39.1923675499944</v>
+        <v>40.6269264587454</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>23.8673076683828</v>
+        <v>23.3354593436208</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>51.9238096234952</v>
+        <v>51.952745575358</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>89.7871850224052</v>
+        <v>89.4785784061071</v>
       </c>
     </row>
     <row r="175">
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
       <c r="F175" t="n">
-        <v>90.9286990528003</v>
+        <v>91.6641100661412</v>
       </c>
     </row>
     <row r="176">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>59.0910455855562</v>
+        <v>58.2892649806366</v>
       </c>
     </row>
     <row r="177">
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
       <c r="F177" t="n">
-        <v>195.772432170008</v>
+        <v>194.349401387334</v>
       </c>
     </row>
     <row r="178">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>159.173676094904</v>
+        <v>159.109205660908</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>46.6652337144246</v>
+        <v>47.0674253692276</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>11.0468712950056</v>
+        <v>11.4834938640135</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>22.7926462167546</v>
+        <v>22.3068006303677</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>50.7833315493719</v>
+        <v>50.8188889967918</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>88.7732328072421</v>
+        <v>88.4878990139826</v>
       </c>
     </row>
     <row r="184">
@@ -4145,7 +4145,7 @@
         <v>17</v>
       </c>
       <c r="F184" t="n">
-        <v>94.0272667044052</v>
+        <v>94.7164126519037</v>
       </c>
     </row>
     <row r="185">
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
       <c r="F185" t="n">
-        <v>62.5218324941013</v>
+        <v>61.9546550290156</v>
       </c>
     </row>
     <row r="186">
@@ -4185,7 +4185,7 @@
         <v>17</v>
       </c>
       <c r="F186" t="n">
-        <v>199.197386346115</v>
+        <v>198.44780819377</v>
       </c>
     </row>
     <row r="187">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>160.976856342892</v>
+        <v>160.992207730424</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>49.8756626992951</v>
+        <v>50.6163812225343</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>39.4567752398306</v>
+        <v>40.3349255946643</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>22.3488943054982</v>
+        <v>21.9924341368741</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>50.4582157884336</v>
+        <v>50.4792899860068</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>94.6401479581528</v>
+        <v>94.3896470548314</v>
       </c>
     </row>
     <row r="193">
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
       <c r="F193" t="n">
-        <v>95.7817625040028</v>
+        <v>96.449060918326</v>
       </c>
     </row>
     <row r="194">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>66.5133375952167</v>
+        <v>65.9276571111906</v>
       </c>
     </row>
     <row r="195">
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
       <c r="F195" t="n">
-        <v>195.912162757769</v>
+        <v>195.062328452186</v>
       </c>
     </row>
     <row r="196">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>159.16515130079</v>
+        <v>159.077571123327</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>53.4720697561201</v>
+        <v>54.290666143661</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>42.0874078485703</v>
+        <v>44.1445883393575</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>22.3800540334735</v>
+        <v>22.056597972214</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>52.0732539207301</v>
+        <v>52.0886542729829</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>89.2889403413764</v>
+        <v>89.0744751869418</v>
       </c>
     </row>
     <row r="202">
@@ -4505,7 +4505,7 @@
         <v>17</v>
       </c>
       <c r="F202" t="n">
-        <v>99.8263443107465</v>
+        <v>100.383476588018</v>
       </c>
     </row>
     <row r="203">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>66.1785223537034</v>
+        <v>65.4363774397232</v>
       </c>
     </row>
     <row r="204">
@@ -4545,7 +4545,7 @@
         <v>17</v>
       </c>
       <c r="F204" t="n">
-        <v>196.920816566193</v>
+        <v>193.805765067464</v>
       </c>
     </row>
     <row r="205">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>159.605215273442</v>
+        <v>159.505440598001</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>57.6128423644244</v>
+        <v>58.8007704803452</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>26.8307672139795</v>
+        <v>28.7892351881199</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>22.3506291524449</v>
+        <v>22.0691325514019</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>53.5974405917003</v>
+        <v>53.5928341377651</v>
       </c>
     </row>
     <row r="210">
@@ -4665,7 +4665,7 @@
         <v>17</v>
       </c>
       <c r="F210" t="n">
-        <v>92.3322003359666</v>
+        <v>92.0965350472394</v>
       </c>
     </row>
     <row r="211">
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
       <c r="F211" t="n">
-        <v>100.903551136328</v>
+        <v>101.282301747714</v>
       </c>
     </row>
     <row r="212">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>66.9505735991886</v>
+        <v>66.1970836979879</v>
       </c>
     </row>
     <row r="213">
@@ -4725,7 +4725,7 @@
         <v>17</v>
       </c>
       <c r="F213" t="n">
-        <v>195.549776956711</v>
+        <v>194.674556521843</v>
       </c>
     </row>
     <row r="214">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>163.467167735268</v>
+        <v>163.400273252333</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>55.4600557718597</v>
+        <v>56.3438901999915</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>29.1565854578791</v>
+        <v>31.5590453495774</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>22.7093854803362</v>
+        <v>22.4561654394073</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>52.2065872182366</v>
+        <v>52.210531692815</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>93.3667665998729</v>
+        <v>93.1131455359325</v>
       </c>
     </row>
     <row r="220">
@@ -4865,7 +4865,7 @@
         <v>17</v>
       </c>
       <c r="F220" t="n">
-        <v>102.971476344927</v>
+        <v>103.055450959326</v>
       </c>
     </row>
     <row r="221">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>65.6218592580848</v>
+        <v>64.9772627727907</v>
       </c>
     </row>
     <row r="222">
@@ -4905,7 +4905,7 @@
         <v>17</v>
       </c>
       <c r="F222" t="n">
-        <v>196.54273084475</v>
+        <v>194.53799917638</v>
       </c>
     </row>
     <row r="223">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>162.955415990259</v>
+        <v>162.913669260901</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>53.2095357937608</v>
+        <v>54.0672944184964</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>5.66160761333332</v>
+        <v>7.9889838496683</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>22.8319210038944</v>
+        <v>22.61990978104</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>53.0632172783993</v>
+        <v>53.0538083210994</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>92.68782276258</v>
+        <v>92.3759914807144</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>98.4034667142526</v>
+        <v>97.6292569508993</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>66.2247788828693</v>
+        <v>65.5756784742486</v>
       </c>
     </row>
     <row r="231">
@@ -5085,7 +5085,7 @@
         <v>17</v>
       </c>
       <c r="F231" t="n">
-        <v>198.319828922056</v>
+        <v>195.726581306787</v>
       </c>
     </row>
     <row r="232">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>161.300048267845</v>
+        <v>161.265914462973</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>52.8297170512504</v>
+        <v>53.7050081426123</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>43.3520390253608</v>
+        <v>45.5887237210452</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>22.8889328576952</v>
+        <v>22.7135474498286</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>53.7048736515008</v>
+        <v>53.7385575955678</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>94.267727754401</v>
+        <v>94.0605126319412</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>87.6814016513192</v>
+        <v>86.515365633655</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>64.0707871960725</v>
+        <v>63.5495815628737</v>
       </c>
     </row>
     <row r="240">
@@ -5265,7 +5265,7 @@
         <v>17</v>
       </c>
       <c r="F240" t="n">
-        <v>193.968282979593</v>
+        <v>189.018771078639</v>
       </c>
     </row>
     <row r="241">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>160.261470314337</v>
+        <v>160.120701443989</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>53.6458741945612</v>
+        <v>54.3929742887564</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>26.9310954556092</v>
+        <v>28.7590851369038</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>23.6793351957505</v>
+        <v>23.5148337086653</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>53.0084974108814</v>
+        <v>53.0063121248289</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>98.6087988892568</v>
+        <v>98.5525850982561</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>89.3818107562993</v>
+        <v>88.0315497937018</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>67.1937492577742</v>
+        <v>66.6947190191409</v>
       </c>
     </row>
     <row r="249">
@@ -5445,7 +5445,7 @@
         <v>17</v>
       </c>
       <c r="F249" t="n">
-        <v>195.393591855852</v>
+        <v>192.645711815576</v>
       </c>
     </row>
     <row r="250">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>162.612543213272</v>
+        <v>162.32643799755</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>52.3015860766947</v>
+        <v>52.9834418243461</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>19.0995873995881</v>
+        <v>21.2054021317003</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>23.5110779314812</v>
+        <v>23.3675822587095</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>54.1573986056093</v>
+        <v>54.1462486704854</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>102.420472799436</v>
+        <v>102.2525676679</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>89.1381644867806</v>
+        <v>87.5606118655964</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>69.5528052055273</v>
+        <v>68.3294581978637</v>
       </c>
     </row>
     <row r="258">
@@ -5625,7 +5625,7 @@
         <v>17</v>
       </c>
       <c r="F258" t="n">
-        <v>193.451521214258</v>
+        <v>189.934314722084</v>
       </c>
     </row>
     <row r="259">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>166.956994723503</v>
+        <v>166.79077867857</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>53.5039928728068</v>
+        <v>54.7192855851491</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>22.9874926898189</v>
+        <v>24.0236467298073</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>23.4498810240941</v>
+        <v>23.3194176376286</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>54.2986767694366</v>
+        <v>54.2867381838095</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>104.294095210075</v>
+        <v>104.051532322151</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>86.0637215618305</v>
+        <v>84.3695999662576</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>70.2854192544646</v>
+        <v>69.2844026831587</v>
       </c>
     </row>
     <row r="267">
@@ -5805,7 +5805,7 @@
         <v>17</v>
       </c>
       <c r="F267" t="n">
-        <v>193.25411934491</v>
+        <v>191.212402654517</v>
       </c>
     </row>
     <row r="268">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>167.989452644179</v>
+        <v>166.974991902899</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>52.3179347403484</v>
+        <v>53.7367639497583</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>13.6311604215827</v>
+        <v>14.6294739119657</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>23.5211572284816</v>
+        <v>23.3912527449824</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>56.0159118421835</v>
+        <v>55.9859081579325</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>96.9637368270874</v>
+        <v>96.6767051698896</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>76.6309835259193</v>
+        <v>74.8009078057653</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>63.1128902773323</v>
+        <v>62.7758993488902</v>
       </c>
     </row>
     <row r="276">
@@ -5985,7 +5985,7 @@
         <v>17</v>
       </c>
       <c r="F276" t="n">
-        <v>179.877787687065</v>
+        <v>177.572511305286</v>
       </c>
     </row>
     <row r="277">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>141.111727203572</v>
+        <v>140.19387613442</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>49.6811821387378</v>
+        <v>51.4144808248301</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>25.6422561324158</v>
+        <v>25.0060879616828</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>22.9679380302419</v>
+        <v>22.8629113265474</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>55.0613999454524</v>
+        <v>55.1091705533593</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>94.1575976748227</v>
+        <v>93.9145054151351</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>77.1395384206721</v>
+        <v>74.9492735806616</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>65.798657344181</v>
+        <v>64.8937765504267</v>
       </c>
     </row>
     <row r="285">
@@ -6165,7 +6165,7 @@
         <v>17</v>
       </c>
       <c r="F285" t="n">
-        <v>182.704953438114</v>
+        <v>181.185885657647</v>
       </c>
     </row>
     <row r="286">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>148.977455944002</v>
+        <v>147.429045050829</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>51.4995484787082</v>
+        <v>53.2178716576849</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>13.5368899275852</v>
+        <v>14.769865507201</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>23.1025909957591</v>
+        <v>22.8748273546197</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>55.9473062701232</v>
+        <v>55.9118219633422</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>98.0505963344666</v>
+        <v>97.5939639380884</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>75.1752332135558</v>
+        <v>70.2500014157287</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>66.9738819125403</v>
+        <v>65.7635699760441</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>180.301371837561</v>
+        <v>179.47633057572</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>156.646822791649</v>
+        <v>155.38070939335</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>51.3155019297502</v>
+        <v>52.5228016126685</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>51.4594091509288</v>
+        <v>50.7972502933144</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>23.3568439107414</v>
+        <v>23.0008923639278</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>55.149683872178</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>92.2441288637591</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>68.5153082923304</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>65.0150757324791</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>180.129597757401</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>156.340786344296</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>53.5336364745165</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>4.16900466725359</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>22.9870883158585</v>
       </c>
     </row>
   </sheetData>
